--- a/biology/Botanique/Padina_(algue)/Padina_(algue).xlsx
+++ b/biology/Botanique/Padina_(algue)/Padina_(algue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Padina est un genre d'algues brunes de la famille des Dictyotaceae.
 Padina concrescens est une espèce en danger.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre est dérivé du grec πεδινε / pedine, plat, en référence probable à la forme du thalle ressemblant à une « lame aplatie »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre est dérivé du grec πεδινε / pedine, plat, en référence probable à la forme du thalle ressemblant à une « lame aplatie ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (23 octobre 2017)[1] et World Register of Marine Species                               (23 octobre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (23 octobre 2017) et World Register of Marine Species                               (23 octobre 2017) :
 Padina afaqhusainii Aisha &amp; Shameel, 2010
 Padina antillarum (Kützing) Piccone, 1886
 Padina arborescens Holmes, 1896
@@ -599,7 +615,7 @@
 Padina usoehtunii Ni-Ni-Win &amp; H.Kawai, 2011
 Padina xishaensis C.K.Tseng &amp; Lu, 1985
 Padina zonata Gaillon
-Selon ITIS      (23 octobre 2017)[4] :
+Selon ITIS      (23 octobre 2017) :
 Padina commersoni
 Padina crassa
 Padina gymnospora (Kuetzing) Vickers
